--- a/projects/mid_atlantic/study/high_efficiency_and_shallow_sites_formatted.xlsx
+++ b/projects/mid_atlantic/study/high_efficiency_and_shallow_sites_formatted.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\caes\projects\mid_atlantic\expected_case_n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\caes\projects\mid_atlantic\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{003B244E-1BF4-44F1-95DA-9EC7BCB05117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B812718-0C6F-43DE-8AE4-146EC00C7778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="high_efficiency_and_shallow_sit" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -176,14 +176,23 @@
   </si>
   <si>
     <t>Formation depth (m)</t>
+  </si>
+  <si>
+    <t>frac</t>
+  </si>
+  <si>
+    <t>A_grid</t>
+  </si>
+  <si>
+    <t>Energy Storage Capacity (TWh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -662,11 +671,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1022,25 +1030,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AW11"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="BB8" sqref="BB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="41" max="41" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" customWidth="1"/>
-    <col min="45" max="45" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.88671875" customWidth="1"/>
+    <col min="49" max="49" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1125,10 +1134,10 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
       <c r="AF1" t="s">
@@ -1140,54 +1149,63 @@
       <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
         <v>34</v>
       </c>
       <c r="AK1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AR1" t="str">
         <f>AE1</f>
         <v>Water depth (m)</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="AS1" t="str">
         <f>AD1</f>
         <v>Distance to shore (km)</v>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AT1" t="str">
         <f>AI1</f>
         <v>RTE [%]</v>
       </c>
-      <c r="AR1" t="str">
+      <c r="AU1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV1" t="str">
         <f>AH1</f>
         <v>Nearest State (-)</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1297,52 +1315,62 @@
         <v>42</v>
       </c>
       <c r="AK2">
+        <v>0.03</v>
+      </c>
+      <c r="AL2">
+        <v>448592400</v>
+      </c>
+      <c r="AM2">
         <v>24529.513611880499</v>
       </c>
-      <c r="AL2">
-        <v>1596.6239942495699</v>
-      </c>
-      <c r="AM2">
-        <v>7663795.1723979404</v>
-      </c>
-      <c r="AO2" s="4">
+      <c r="AN2">
+        <v>548.63590909042296</v>
+      </c>
+      <c r="AO2">
+        <v>2633452.3636340299</v>
+      </c>
+      <c r="AR2" s="3">
         <f>AE2*-1</f>
         <v>37.754642486572202</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AS2" s="3">
         <f>AD2</f>
         <v>54.092503842669302</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AT2" s="2">
         <f>AI2*100</f>
         <v>60.7017828849267</v>
       </c>
-      <c r="AR2" t="str">
-        <f t="shared" ref="AR2:AR22" si="0">AH2</f>
+      <c r="AU2" s="2">
+        <f>AO2/1000000</f>
+        <v>2.6334523636340297</v>
+      </c>
+      <c r="AV2" t="str">
+        <f>AH2</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="AW2" t="str">
         <f>AG2</f>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT2" s="4">
-        <f>0.013*EXP(38.82*AV2)</f>
+      <c r="AX2" s="3">
+        <f>0.013*EXP(38.82*AZ2)</f>
         <v>216.528478342331</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="AY2" s="3">
         <f>I2*0.3048</f>
         <v>703.8695498400001</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AZ2" s="1">
         <f>J2</f>
         <v>0.25040000000000001</v>
       </c>
-      <c r="AW2">
+      <c r="BA2">
         <f>K2</f>
         <v>3177</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1452,52 +1480,62 @@
         <v>42</v>
       </c>
       <c r="AK3">
+        <v>0.03</v>
+      </c>
+      <c r="AL3">
+        <v>448592400</v>
+      </c>
+      <c r="AM3">
         <v>23585.032208629302</v>
       </c>
-      <c r="AL3">
-        <v>1660.56207401193</v>
-      </c>
-      <c r="AM3">
-        <v>7970697.9552573096</v>
-      </c>
-      <c r="AO3" s="4">
-        <f t="shared" ref="AO3:AO22" si="1">AE3*-1</f>
+      <c r="AN3">
+        <v>570.60647112773495</v>
+      </c>
+      <c r="AO3">
+        <v>2738911.0614131298</v>
+      </c>
+      <c r="AR3" s="3">
+        <f t="shared" ref="AR3:AR22" si="0">AE3*-1</f>
         <v>50.613811492919901</v>
       </c>
-      <c r="AP3" s="4">
-        <f t="shared" ref="AP3:AP22" si="2">AD3</f>
+      <c r="AS3" s="3">
+        <f t="shared" ref="AS3:AS22" si="1">AD3</f>
         <v>86.208390684030306</v>
       </c>
-      <c r="AQ3" s="3">
-        <f t="shared" ref="AQ3:AQ22" si="3">AI3*100</f>
+      <c r="AT3" s="2">
+        <f t="shared" ref="AT3:AT22" si="2">AI3*100</f>
         <v>60.974730641198505</v>
       </c>
-      <c r="AR3" t="str">
-        <f t="shared" si="0"/>
+      <c r="AU3" s="2">
+        <f t="shared" ref="AU3:AU22" si="3">AO3/1000000</f>
+        <v>2.73891106141313</v>
+      </c>
+      <c r="AV3" t="str">
+        <f>AH3</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS3" t="str">
-        <f t="shared" ref="AS3:AS22" si="4">AG3</f>
+      <c r="AW3" t="str">
+        <f t="shared" ref="AW3:AW22" si="4">AG3</f>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT3" s="4">
-        <f>0.013*EXP(38.82*AV3)</f>
+      <c r="AX3" s="3">
+        <f t="shared" ref="AX3:AX22" si="5">0.013*EXP(38.82*AZ3)</f>
         <v>62.762896479406912</v>
       </c>
-      <c r="AU3" s="4">
-        <f t="shared" ref="AU3:AU22" si="5">I3*0.3048</f>
+      <c r="AY3" s="3">
+        <f t="shared" ref="AY3:AY22" si="6">I3*0.3048</f>
         <v>596.05285919999699</v>
       </c>
-      <c r="AV3" s="2">
-        <f t="shared" ref="AV3:AV22" si="6">J3</f>
+      <c r="AZ3" s="1">
+        <f t="shared" ref="AZ3:AZ22" si="7">J3</f>
         <v>0.2185</v>
       </c>
-      <c r="AW3">
-        <f t="shared" ref="AW3:AW22" si="7">K3</f>
+      <c r="BA3">
+        <f t="shared" ref="BA3:BA22" si="8">K3</f>
         <v>3791</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1607,126 +1645,136 @@
         <v>42</v>
       </c>
       <c r="AK4">
+        <v>0.03</v>
+      </c>
+      <c r="AL4">
+        <v>448592400</v>
+      </c>
+      <c r="AM4">
         <v>23626.820587489601</v>
       </c>
-      <c r="AL4">
-        <v>1657.62506448867</v>
-      </c>
-      <c r="AM4">
-        <v>7956600.3095456501</v>
-      </c>
-      <c r="AO4" s="4">
+      <c r="AN4">
+        <v>569.597248608467</v>
+      </c>
+      <c r="AO4">
+        <v>2734066.79332064</v>
+      </c>
+      <c r="AR4" s="3">
+        <f t="shared" si="0"/>
+        <v>53.066360473632798</v>
+      </c>
+      <c r="AS4" s="3">
         <f t="shared" si="1"/>
-        <v>53.066360473632798</v>
-      </c>
-      <c r="AP4" s="4">
+        <v>88.509976211563398</v>
+      </c>
+      <c r="AT4" s="2">
         <f t="shared" si="2"/>
-        <v>88.509976211563398</v>
-      </c>
-      <c r="AQ4" s="3">
+        <v>60.937706871648899</v>
+      </c>
+      <c r="AU4" s="2">
         <f t="shared" si="3"/>
-        <v>60.937706871648899</v>
-      </c>
-      <c r="AR4" t="str">
-        <f t="shared" si="0"/>
+        <v>2.7340667933206402</v>
+      </c>
+      <c r="AV4" t="str">
+        <f>AH4</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS4" t="str">
+      <c r="AW4" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT4" s="4">
-        <f>0.013*EXP(38.82*AV4)</f>
+      <c r="AX4" s="3">
+        <f t="shared" si="5"/>
         <v>66.268328186661918</v>
       </c>
-      <c r="AU4" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY4" s="3">
+        <f t="shared" si="6"/>
         <v>1017.38954256</v>
       </c>
-      <c r="AV4" s="2">
-        <f t="shared" si="6"/>
+      <c r="AZ4" s="1">
+        <f t="shared" si="7"/>
         <v>0.21990000000000001</v>
       </c>
-      <c r="AW4">
-        <f t="shared" si="7"/>
+      <c r="BA4">
+        <f t="shared" si="8"/>
         <v>3760</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>131951.22</v>
+        <v>47231.22</v>
       </c>
       <c r="E5">
-        <v>4345306.45</v>
+        <v>4239406.45</v>
       </c>
       <c r="F5">
-        <v>12650.4141</v>
+        <v>12728.662700000001</v>
       </c>
       <c r="G5">
-        <v>6809.1669000000002</v>
+        <v>5055.8519999999999</v>
       </c>
       <c r="H5">
-        <v>0.2049</v>
+        <v>0.1104</v>
       </c>
       <c r="I5">
-        <v>3595.1006000000002</v>
+        <v>1163.7648999999999</v>
       </c>
       <c r="J5">
-        <v>0.22770000000000001</v>
+        <v>0.2172</v>
       </c>
       <c r="K5">
-        <v>3856</v>
+        <v>3880</v>
       </c>
       <c r="L5">
-        <v>-61.4946899414062</v>
+        <v>-68.224609375</v>
       </c>
       <c r="M5">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="N5">
-        <v>94200.464120690696</v>
+        <v>81524.562816243604</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
         <v>39</v>
       </c>
       <c r="Q5">
-        <v>0.38658549974226197</v>
+        <v>0.39063210454807701</v>
       </c>
       <c r="R5">
-        <v>0.61483175249196997</v>
+        <v>0.61943686854473201</v>
       </c>
       <c r="S5">
-        <v>0.93333025488043297</v>
+        <v>0.85552135836738596</v>
       </c>
       <c r="T5">
-        <v>158540.835858885</v>
+        <v>160611.96746333101</v>
       </c>
       <c r="U5">
-        <v>190600.00256412799</v>
+        <v>192042.24115006701</v>
       </c>
       <c r="V5">
-        <v>234347.16161550701</v>
+        <v>221358.04908855699</v>
       </c>
       <c r="W5">
-        <v>1161249.14692575</v>
+        <v>1764366.4085154301</v>
       </c>
       <c r="X5">
-        <v>4297311.6062619099</v>
+        <v>4471664.2603390897</v>
       </c>
       <c r="Y5">
-        <v>6345961.1607039301</v>
+        <v>6660441.6854961095</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -1735,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>431.07400767120299</v>
+        <v>430.16132935630702</v>
       </c>
       <c r="AC5">
-        <v>84.891368991843706</v>
+        <v>86.074916073894599</v>
       </c>
       <c r="AD5">
-        <v>94.200464120690697</v>
+        <v>81.524562816243602</v>
       </c>
       <c r="AE5">
-        <v>-61.4946899414062</v>
+        <v>-68.224609375</v>
       </c>
       <c r="AF5">
         <v>100</v>
@@ -1753,61 +1801,71 @@
         <v>40</v>
       </c>
       <c r="AH5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AI5">
-        <v>0.61483175249196997</v>
+        <v>0.61943686854473201</v>
       </c>
       <c r="AJ5" t="s">
         <v>45</v>
       </c>
       <c r="AK5">
-        <v>22640.027351045999</v>
+        <v>0.03</v>
       </c>
       <c r="AL5">
-        <v>1729.87467694867</v>
+        <v>448592400</v>
       </c>
       <c r="AM5">
-        <v>8303398.44935364</v>
-      </c>
-      <c r="AO5" s="4">
+        <v>23275.718093311501</v>
+      </c>
+      <c r="AN5">
+        <v>578.18933645992001</v>
+      </c>
+      <c r="AO5">
+        <v>2775308.8150076098</v>
+      </c>
+      <c r="AR5" s="3">
+        <f t="shared" si="0"/>
+        <v>68.224609375</v>
+      </c>
+      <c r="AS5" s="3">
         <f t="shared" si="1"/>
-        <v>61.4946899414062</v>
-      </c>
-      <c r="AP5" s="4">
+        <v>81.524562816243602</v>
+      </c>
+      <c r="AT5" s="2">
         <f t="shared" si="2"/>
-        <v>94.200464120690697</v>
-      </c>
-      <c r="AQ5" s="3">
+        <v>61.943686854473199</v>
+      </c>
+      <c r="AU5" s="2">
         <f t="shared" si="3"/>
-        <v>61.483175249196997</v>
-      </c>
-      <c r="AR5" t="str">
-        <f t="shared" si="0"/>
-        <v>New Jersey</v>
-      </c>
-      <c r="AS5" t="str">
+        <v>2.7753088150076097</v>
+      </c>
+      <c r="AV5" t="str">
+        <f>AH5</f>
+        <v>Maryland</v>
+      </c>
+      <c r="AW5" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT5" s="4">
-        <f>0.013*EXP(38.82*AV5)</f>
-        <v>89.703346716925665</v>
-      </c>
-      <c r="AU5" s="4">
+      <c r="AX5" s="3">
         <f t="shared" si="5"/>
-        <v>1095.7866628800002</v>
-      </c>
-      <c r="AV5" s="2">
+        <v>59.674099287535206</v>
+      </c>
+      <c r="AY5" s="3">
         <f t="shared" si="6"/>
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="AW5">
+        <v>354.71554151999999</v>
+      </c>
+      <c r="AZ5" s="1">
         <f t="shared" si="7"/>
-        <v>3856</v>
+        <v>0.2172</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="8"/>
+        <v>3880</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1917,126 +1975,136 @@
         <v>45</v>
       </c>
       <c r="AK6">
+        <v>0.03</v>
+      </c>
+      <c r="AL6">
+        <v>448592400</v>
+      </c>
+      <c r="AM6">
         <v>22281.4869624967</v>
       </c>
-      <c r="AL6">
-        <v>1757.7107877010101</v>
-      </c>
-      <c r="AM6">
-        <v>8437011.7809648495</v>
-      </c>
-      <c r="AO6" s="4">
+      <c r="AN6">
+        <v>603.98895381854595</v>
+      </c>
+      <c r="AO6">
+        <v>2899146.9783290201</v>
+      </c>
+      <c r="AR6" s="3">
+        <f t="shared" si="0"/>
+        <v>61.990776062011697</v>
+      </c>
+      <c r="AS6" s="3">
         <f t="shared" si="1"/>
-        <v>61.990776062011697</v>
-      </c>
-      <c r="AP6" s="4">
+        <v>97.281135428897599</v>
+      </c>
+      <c r="AT6" s="2">
         <f t="shared" si="2"/>
-        <v>97.281135428897599</v>
-      </c>
-      <c r="AQ6" s="3">
+        <v>60.635289884385202</v>
+      </c>
+      <c r="AU6" s="2">
         <f t="shared" si="3"/>
-        <v>60.635289884385202</v>
-      </c>
-      <c r="AR6" t="str">
-        <f t="shared" si="0"/>
+        <v>2.89914697832902</v>
+      </c>
+      <c r="AV6" t="str">
+        <f>AH6</f>
         <v>Maryland</v>
       </c>
-      <c r="AS6" t="str">
+      <c r="AW6" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT6" s="4">
-        <f>0.013*EXP(38.82*AV6)</f>
+      <c r="AX6" s="3">
+        <f t="shared" si="5"/>
         <v>56.957995691223374</v>
       </c>
-      <c r="AU6" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY6" s="3">
+        <f t="shared" si="6"/>
         <v>399.01797768</v>
       </c>
-      <c r="AV6" s="2">
-        <f t="shared" si="6"/>
+      <c r="AZ6" s="1">
+        <f t="shared" si="7"/>
         <v>0.216</v>
       </c>
-      <c r="AW6">
-        <f t="shared" si="7"/>
+      <c r="BA6">
+        <f t="shared" si="8"/>
         <v>4135</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>195491.22</v>
+        <v>131951.22</v>
       </c>
       <c r="E7">
-        <v>4408846.45</v>
+        <v>4345306.45</v>
       </c>
       <c r="F7">
-        <v>11447.090399999999</v>
+        <v>12650.4141</v>
       </c>
       <c r="G7">
-        <v>3053.7842999999998</v>
+        <v>6809.1669000000002</v>
       </c>
       <c r="H7">
-        <v>0.18240000000000001</v>
+        <v>0.2049</v>
       </c>
       <c r="I7">
-        <v>1784.4204</v>
+        <v>3595.1006000000002</v>
       </c>
       <c r="J7">
-        <v>0.2364</v>
+        <v>0.22770000000000001</v>
       </c>
       <c r="K7">
-        <v>3489</v>
+        <v>3856</v>
       </c>
       <c r="L7">
-        <v>-63.196060180663999</v>
+        <v>-61.4946899414062</v>
       </c>
       <c r="M7">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="N7">
-        <v>107774.86427951101</v>
+        <v>94200.464120690696</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
         <v>39</v>
       </c>
       <c r="Q7">
-        <v>0.40775322205707198</v>
+        <v>0.38658549974226197</v>
       </c>
       <c r="R7">
-        <v>0.60373645402689802</v>
+        <v>0.61483175249196997</v>
       </c>
       <c r="S7">
-        <v>0.84579476126594699</v>
+        <v>0.93333025488043297</v>
       </c>
       <c r="T7">
-        <v>163767.78511537501</v>
+        <v>158540.835858885</v>
       </c>
       <c r="U7">
-        <v>191576.07034502499</v>
+        <v>190600.00256412799</v>
       </c>
       <c r="V7">
-        <v>220942.089673485</v>
+        <v>234347.16161550701</v>
       </c>
       <c r="W7">
-        <v>2864091.3247986999</v>
+        <v>1161249.14692575</v>
       </c>
       <c r="X7">
-        <v>4446695.96404891</v>
+        <v>4297311.6062619099</v>
       </c>
       <c r="Y7">
-        <v>6331405.7341548596</v>
+        <v>6345961.1607039301</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -2045,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>446.15861703899702</v>
+        <v>431.07400767120299</v>
       </c>
       <c r="AC7">
-        <v>86.999690370662506</v>
+        <v>84.891368991843706</v>
       </c>
       <c r="AD7">
-        <v>107.77486427951099</v>
+        <v>94.200464120690697</v>
       </c>
       <c r="AE7">
-        <v>-63.196060180663999</v>
+        <v>-61.4946899414062</v>
       </c>
       <c r="AF7">
         <v>100</v>
@@ -2063,412 +2131,442 @@
         <v>40</v>
       </c>
       <c r="AH7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AI7">
-        <v>0.60373645402689802</v>
+        <v>0.61483175249196997</v>
       </c>
       <c r="AJ7" t="s">
         <v>45</v>
       </c>
       <c r="AK7">
-        <v>23778.545540432398</v>
+        <v>0.03</v>
       </c>
       <c r="AL7">
-        <v>1647.048173464</v>
+        <v>448592400</v>
       </c>
       <c r="AM7">
-        <v>7905831.2326272205</v>
-      </c>
-      <c r="AO7" s="4">
+        <v>22640.027351045999</v>
+      </c>
+      <c r="AN7">
+        <v>594.42384018931796</v>
+      </c>
+      <c r="AO7">
+        <v>2853234.4329087199</v>
+      </c>
+      <c r="AR7" s="3">
+        <f t="shared" si="0"/>
+        <v>61.4946899414062</v>
+      </c>
+      <c r="AS7" s="3">
         <f t="shared" si="1"/>
-        <v>63.196060180663999</v>
-      </c>
-      <c r="AP7" s="4">
+        <v>94.200464120690697</v>
+      </c>
+      <c r="AT7" s="2">
         <f t="shared" si="2"/>
-        <v>107.77486427951099</v>
-      </c>
-      <c r="AQ7" s="3">
+        <v>61.483175249196997</v>
+      </c>
+      <c r="AU7" s="2">
         <f t="shared" si="3"/>
-        <v>60.373645402689803</v>
-      </c>
-      <c r="AR7" t="str">
-        <f t="shared" si="0"/>
-        <v>New York</v>
-      </c>
-      <c r="AS7" t="str">
+        <v>2.85323443290872</v>
+      </c>
+      <c r="AV7" t="str">
+        <f>AH7</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="AW7" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT7" s="4">
-        <f>0.013*EXP(38.82*AV7)</f>
-        <v>125.74324357108323</v>
-      </c>
-      <c r="AU7" s="4">
+      <c r="AX7" s="3">
         <f t="shared" si="5"/>
-        <v>543.89133792000007</v>
-      </c>
-      <c r="AV7" s="2">
+        <v>89.703346716925665</v>
+      </c>
+      <c r="AY7" s="3">
         <f t="shared" si="6"/>
-        <v>0.2364</v>
-      </c>
-      <c r="AW7">
+        <v>1095.7866628800002</v>
+      </c>
+      <c r="AZ7" s="1">
         <f t="shared" si="7"/>
-        <v>3489</v>
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="8"/>
+        <v>3856</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>47231.22</v>
+        <v>153131.22</v>
       </c>
       <c r="E8">
-        <v>4239406.45</v>
+        <v>4345306.45</v>
       </c>
       <c r="F8">
-        <v>12728.662700000001</v>
+        <v>14884.4347</v>
       </c>
       <c r="G8">
-        <v>5055.8519999999999</v>
+        <v>7015.1630999999998</v>
       </c>
       <c r="H8">
-        <v>0.1104</v>
+        <v>0.21460000000000001</v>
       </c>
       <c r="I8">
-        <v>1163.7648999999999</v>
+        <v>3936.1547999999998</v>
       </c>
       <c r="J8">
-        <v>0.2172</v>
+        <v>0.222</v>
       </c>
       <c r="K8">
-        <v>3880</v>
+        <v>4537</v>
       </c>
       <c r="L8">
-        <v>-68.224609375</v>
+        <v>-68.521919250488196</v>
       </c>
       <c r="M8">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="N8">
-        <v>81524.562816243604</v>
+        <v>111910.73180850199</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
       </c>
       <c r="Q8">
-        <v>0.39063210454807701</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.61943686854473201</v>
+        <v>0.60427363891812602</v>
       </c>
       <c r="S8">
-        <v>0.85552135836738596</v>
+        <v>0.90395847592825496</v>
       </c>
       <c r="T8">
-        <v>160611.96746333101</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>192042.24115006701</v>
+        <v>184701.026730054</v>
       </c>
       <c r="V8">
-        <v>221358.04908855699</v>
+        <v>226847.56019329</v>
       </c>
       <c r="W8">
-        <v>1764366.4085154301</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>4471664.2603390897</v>
+        <v>4186428.74760326</v>
       </c>
       <c r="Y8">
-        <v>6660441.6854961095</v>
+        <v>6121367.3713747598</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB8">
-        <v>430.16132935630702</v>
+        <v>406.24758510525902</v>
       </c>
       <c r="AC8">
-        <v>86.074916073894599</v>
+        <v>80.6022820801889</v>
       </c>
       <c r="AD8">
-        <v>81.524562816243602</v>
+        <v>111.91073180850201</v>
       </c>
       <c r="AE8">
-        <v>-68.224609375</v>
+        <v>-68.521919250488196</v>
       </c>
       <c r="AF8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s">
         <v>40</v>
       </c>
       <c r="AH8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AI8">
-        <v>0.61943686854473201</v>
+        <v>0.60427363891812602</v>
       </c>
       <c r="AJ8" t="s">
         <v>45</v>
       </c>
       <c r="AK8">
-        <v>23275.718093311501</v>
+        <v>0.03</v>
       </c>
       <c r="AL8">
-        <v>1682.6295044041599</v>
+        <v>448592400</v>
       </c>
       <c r="AM8">
-        <v>8076621.6211400004</v>
-      </c>
-      <c r="AO8" s="4">
+        <v>20410.072569292301</v>
+      </c>
+      <c r="AN8">
+        <v>659.36914012974501</v>
+      </c>
+      <c r="AO8">
+        <v>3164971.87262278</v>
+      </c>
+      <c r="AR8" s="3">
+        <f t="shared" si="0"/>
+        <v>68.521919250488196</v>
+      </c>
+      <c r="AS8" s="3">
         <f t="shared" si="1"/>
-        <v>68.224609375</v>
-      </c>
-      <c r="AP8" s="4">
+        <v>111.91073180850201</v>
+      </c>
+      <c r="AT8" s="2">
         <f t="shared" si="2"/>
-        <v>81.524562816243602</v>
-      </c>
-      <c r="AQ8" s="3">
+        <v>60.427363891812604</v>
+      </c>
+      <c r="AU8" s="2">
         <f t="shared" si="3"/>
-        <v>61.943686854473199</v>
-      </c>
-      <c r="AR8" t="str">
-        <f t="shared" si="0"/>
-        <v>Maryland</v>
-      </c>
-      <c r="AS8" t="str">
+        <v>3.1649718726227802</v>
+      </c>
+      <c r="AV8" t="str">
+        <f>AH8</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="AW8" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT8" s="4">
-        <f>0.013*EXP(38.82*AV8)</f>
-        <v>59.674099287535206</v>
-      </c>
-      <c r="AU8" s="4">
+      <c r="AX8" s="3">
         <f t="shared" si="5"/>
-        <v>354.71554151999999</v>
-      </c>
-      <c r="AV8" s="2">
+        <v>71.896966872776076</v>
+      </c>
+      <c r="AY8" s="3">
         <f t="shared" si="6"/>
-        <v>0.2172</v>
-      </c>
-      <c r="AW8">
+        <v>1199.73998304</v>
+      </c>
+      <c r="AZ8" s="1">
         <f t="shared" si="7"/>
-        <v>3880</v>
+        <v>0.222</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="8"/>
+        <v>4537</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>153131.22</v>
+        <v>195491.22</v>
       </c>
       <c r="E9">
-        <v>4345306.45</v>
+        <v>4408846.45</v>
       </c>
       <c r="F9">
-        <v>14884.4347</v>
+        <v>11447.090399999999</v>
       </c>
       <c r="G9">
-        <v>7015.1630999999998</v>
+        <v>3053.7842999999998</v>
       </c>
       <c r="H9">
-        <v>0.21460000000000001</v>
+        <v>0.18240000000000001</v>
       </c>
       <c r="I9">
-        <v>3936.1547999999998</v>
+        <v>1784.4204</v>
       </c>
       <c r="J9">
-        <v>0.222</v>
+        <v>0.2364</v>
       </c>
       <c r="K9">
-        <v>4537</v>
+        <v>3489</v>
       </c>
       <c r="L9">
-        <v>-68.521919250488196</v>
+        <v>-63.196060180663999</v>
       </c>
       <c r="M9">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="N9">
-        <v>111910.73180850199</v>
+        <v>107774.86427951101</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
         <v>39</v>
       </c>
       <c r="Q9">
+        <v>0.40775322205707198</v>
+      </c>
+      <c r="R9">
+        <v>0.60373645402689802</v>
+      </c>
+      <c r="S9">
+        <v>0.84579476126594699</v>
+      </c>
+      <c r="T9">
+        <v>163767.78511537501</v>
+      </c>
+      <c r="U9">
+        <v>191576.07034502499</v>
+      </c>
+      <c r="V9">
+        <v>220942.089673485</v>
+      </c>
+      <c r="W9">
+        <v>2864091.3247986999</v>
+      </c>
+      <c r="X9">
+        <v>4446695.96404891</v>
+      </c>
+      <c r="Y9">
+        <v>6331405.7341548596</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>0.60427363891812602</v>
-      </c>
-      <c r="S9">
-        <v>0.90395847592825496</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>184701.026730054</v>
-      </c>
-      <c r="V9">
-        <v>226847.56019329</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>4186428.74760326</v>
-      </c>
-      <c r="Y9">
-        <v>6121367.3713747598</v>
-      </c>
-      <c r="Z9">
-        <v>0.99</v>
-      </c>
-      <c r="AA9">
-        <v>0.01</v>
-      </c>
       <c r="AB9">
-        <v>406.24758510525902</v>
+        <v>446.15861703899702</v>
       </c>
       <c r="AC9">
-        <v>80.6022820801889</v>
+        <v>86.999690370662506</v>
       </c>
       <c r="AD9">
-        <v>111.91073180850201</v>
+        <v>107.77486427951099</v>
       </c>
       <c r="AE9">
-        <v>-68.521919250488196</v>
+        <v>-63.196060180663999</v>
       </c>
       <c r="AF9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s">
         <v>40</v>
       </c>
       <c r="AH9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AI9">
-        <v>0.60427363891812602</v>
+        <v>0.60373645402689802</v>
       </c>
       <c r="AJ9" t="s">
         <v>45</v>
       </c>
       <c r="AK9">
-        <v>20410.072569292301</v>
+        <v>0.03</v>
       </c>
       <c r="AL9">
-        <v>1918.87656778468</v>
+        <v>448592400</v>
       </c>
       <c r="AM9">
-        <v>9210607.5253664795</v>
-      </c>
-      <c r="AO9" s="4">
+        <v>23778.545540432398</v>
+      </c>
+      <c r="AN9">
+        <v>565.96279100068205</v>
+      </c>
+      <c r="AO9">
+        <v>2716621.3968032701</v>
+      </c>
+      <c r="AR9" s="3">
+        <f t="shared" si="0"/>
+        <v>63.196060180663999</v>
+      </c>
+      <c r="AS9" s="3">
         <f t="shared" si="1"/>
-        <v>68.521919250488196</v>
-      </c>
-      <c r="AP9" s="4">
+        <v>107.77486427951099</v>
+      </c>
+      <c r="AT9" s="2">
         <f t="shared" si="2"/>
-        <v>111.91073180850201</v>
-      </c>
-      <c r="AQ9" s="3">
+        <v>60.373645402689803</v>
+      </c>
+      <c r="AU9" s="2">
         <f t="shared" si="3"/>
-        <v>60.427363891812604</v>
-      </c>
-      <c r="AR9" t="str">
-        <f t="shared" si="0"/>
-        <v>New Jersey</v>
-      </c>
-      <c r="AS9" t="str">
+        <v>2.7166213968032702</v>
+      </c>
+      <c r="AV9" t="str">
+        <f>AH9</f>
+        <v>New York</v>
+      </c>
+      <c r="AW9" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT9" s="4">
-        <f>0.013*EXP(38.82*AV9)</f>
-        <v>71.896966872776076</v>
-      </c>
-      <c r="AU9" s="4">
+      <c r="AX9" s="3">
         <f t="shared" si="5"/>
-        <v>1199.73998304</v>
-      </c>
-      <c r="AV9" s="2">
+        <v>125.74324357108323</v>
+      </c>
+      <c r="AY9" s="3">
         <f t="shared" si="6"/>
-        <v>0.222</v>
-      </c>
-      <c r="AW9">
+        <v>543.89133792000007</v>
+      </c>
+      <c r="AZ9" s="1">
         <f t="shared" si="7"/>
-        <v>4537</v>
+        <v>0.2364</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="8"/>
+        <v>3489</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>174311.22</v>
+        <v>110771.22</v>
       </c>
       <c r="E10">
-        <v>4366486.45</v>
+        <v>4281766.45</v>
       </c>
       <c r="F10">
-        <v>12862.617</v>
+        <v>13417.785</v>
       </c>
       <c r="G10">
-        <v>6041.6526999999996</v>
+        <v>6159.7136</v>
       </c>
       <c r="H10">
-        <v>0.16239999999999999</v>
+        <v>0.16120000000000001</v>
       </c>
       <c r="I10">
-        <v>1347.6152999999999</v>
+        <v>1323.9099000000001</v>
       </c>
       <c r="J10">
-        <v>0.2676</v>
+        <v>0.2167</v>
       </c>
       <c r="K10">
-        <v>3921</v>
+        <v>4090</v>
       </c>
       <c r="L10">
-        <v>-78.249458312988196</v>
+        <v>-79.786872863769503</v>
       </c>
       <c r="M10">
-        <v>302</v>
+        <v>1352</v>
       </c>
       <c r="N10">
-        <v>120660.450234107</v>
+        <v>117823.05312158899</v>
       </c>
       <c r="O10" t="s">
         <v>38</v>
@@ -2477,52 +2575,52 @@
         <v>39</v>
       </c>
       <c r="Q10">
-        <v>0.39653888482613597</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.60870004940923095</v>
+        <v>0.60426377841317103</v>
       </c>
       <c r="S10">
-        <v>0.913691577598578</v>
+        <v>0.89254164050462803</v>
       </c>
       <c r="T10">
-        <v>155989.03467668401</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>190096.66725330701</v>
+        <v>187135.57138572901</v>
       </c>
       <c r="V10">
-        <v>230916.357868925</v>
+        <v>225689.717509732</v>
       </c>
       <c r="W10">
-        <v>2691891.5629879399</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>4365409.4241376799</v>
+        <v>4248466.3558479501</v>
       </c>
       <c r="Y10">
-        <v>7040271.0746993702</v>
+        <v>6382464.8622028399</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AB10">
-        <v>428.51208155958301</v>
+        <v>422.13886076154103</v>
       </c>
       <c r="AC10">
-        <v>79.894866436163198</v>
+        <v>84.465609626506094</v>
       </c>
       <c r="AD10">
-        <v>120.660450234107</v>
+        <v>117.823053121589</v>
       </c>
       <c r="AE10">
-        <v>-78.249458312988196</v>
+        <v>-79.786872863769503</v>
       </c>
       <c r="AF10">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s">
         <v>40</v>
@@ -2531,99 +2629,109 @@
         <v>41</v>
       </c>
       <c r="AI10">
-        <v>0.60870004940923095</v>
+        <v>0.60426377841317103</v>
       </c>
       <c r="AJ10" t="s">
         <v>45</v>
       </c>
       <c r="AK10">
-        <v>20053.3818141191</v>
+        <v>0.03</v>
       </c>
       <c r="AL10">
-        <v>1953.0077451786699</v>
+        <v>448592400</v>
       </c>
       <c r="AM10">
-        <v>9374437.1768576596</v>
-      </c>
-      <c r="AO10" s="4">
+        <v>22413.501808291101</v>
+      </c>
+      <c r="AN10">
+        <v>600.43147720102104</v>
+      </c>
+      <c r="AO10">
+        <v>2882071.0905649001</v>
+      </c>
+      <c r="AR10" s="3">
+        <f t="shared" si="0"/>
+        <v>79.786872863769503</v>
+      </c>
+      <c r="AS10" s="3">
         <f t="shared" si="1"/>
-        <v>78.249458312988196</v>
-      </c>
-      <c r="AP10" s="4">
+        <v>117.823053121589</v>
+      </c>
+      <c r="AT10" s="2">
         <f t="shared" si="2"/>
-        <v>120.660450234107</v>
-      </c>
-      <c r="AQ10" s="3">
+        <v>60.426377841317105</v>
+      </c>
+      <c r="AU10" s="2">
         <f t="shared" si="3"/>
-        <v>60.870004940923096</v>
-      </c>
-      <c r="AR10" t="str">
-        <f t="shared" si="0"/>
+        <v>2.8820710905649003</v>
+      </c>
+      <c r="AV10" t="str">
+        <f>AH10</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS10" t="str">
+      <c r="AW10" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT10" s="4">
-        <f>0.013*EXP(38.82*AV10)</f>
-        <v>422.177599956363</v>
-      </c>
-      <c r="AU10" s="4">
+      <c r="AX10" s="3">
         <f t="shared" si="5"/>
-        <v>410.75314343999997</v>
-      </c>
-      <c r="AV10" s="2">
+        <v>58.526993694077007</v>
+      </c>
+      <c r="AY10" s="3">
         <f t="shared" si="6"/>
+        <v>403.52773752000007</v>
+      </c>
+      <c r="AZ10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.2167</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="8"/>
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>174311.22</v>
+      </c>
+      <c r="E11">
+        <v>4366486.45</v>
+      </c>
+      <c r="F11">
+        <v>12862.617</v>
+      </c>
+      <c r="G11">
+        <v>6041.6526999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="I11">
+        <v>1347.6152999999999</v>
+      </c>
+      <c r="J11">
         <v>0.2676</v>
       </c>
-      <c r="AW10">
-        <f t="shared" si="7"/>
+      <c r="K11">
         <v>3921</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>61</v>
-      </c>
-      <c r="D11">
-        <v>110771.22</v>
-      </c>
-      <c r="E11">
-        <v>4281766.45</v>
-      </c>
-      <c r="F11">
-        <v>13417.785</v>
-      </c>
-      <c r="G11">
-        <v>6159.7136</v>
-      </c>
-      <c r="H11">
-        <v>0.16120000000000001</v>
-      </c>
-      <c r="I11">
-        <v>1323.9099000000001</v>
-      </c>
-      <c r="J11">
-        <v>0.2167</v>
-      </c>
-      <c r="K11">
-        <v>4090</v>
-      </c>
       <c r="L11">
-        <v>-79.786872863769503</v>
+        <v>-78.249458312988196</v>
       </c>
       <c r="M11">
-        <v>1352</v>
+        <v>302</v>
       </c>
       <c r="N11">
-        <v>117823.05312158899</v>
+        <v>120660.450234107</v>
       </c>
       <c r="O11" t="s">
         <v>38</v>
@@ -2632,52 +2740,52 @@
         <v>39</v>
       </c>
       <c r="Q11">
+        <v>0.39653888482613597</v>
+      </c>
+      <c r="R11">
+        <v>0.60870004940923095</v>
+      </c>
+      <c r="S11">
+        <v>0.913691577598578</v>
+      </c>
+      <c r="T11">
+        <v>155989.03467668401</v>
+      </c>
+      <c r="U11">
+        <v>190096.66725330701</v>
+      </c>
+      <c r="V11">
+        <v>230916.357868925</v>
+      </c>
+      <c r="W11">
+        <v>2691891.5629879399</v>
+      </c>
+      <c r="X11">
+        <v>4365409.4241376799</v>
+      </c>
+      <c r="Y11">
+        <v>7040271.0746993702</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>0.60426377841317103</v>
-      </c>
-      <c r="S11">
-        <v>0.89254164050462803</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>187135.57138572901</v>
-      </c>
-      <c r="V11">
-        <v>225689.717509732</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>4248466.3558479501</v>
-      </c>
-      <c r="Y11">
-        <v>6382464.8622028399</v>
-      </c>
-      <c r="Z11">
-        <v>0.98</v>
-      </c>
-      <c r="AA11">
-        <v>0.02</v>
-      </c>
       <c r="AB11">
-        <v>422.13886076154103</v>
+        <v>428.51208155958301</v>
       </c>
       <c r="AC11">
-        <v>84.465609626506094</v>
+        <v>79.894866436163198</v>
       </c>
       <c r="AD11">
-        <v>117.823053121589</v>
+        <v>120.660450234107</v>
       </c>
       <c r="AE11">
-        <v>-79.786872863769503</v>
+        <v>-78.249458312988196</v>
       </c>
       <c r="AF11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="s">
         <v>40</v>
@@ -2686,99 +2794,109 @@
         <v>41</v>
       </c>
       <c r="AI11">
-        <v>0.60426377841317103</v>
+        <v>0.60870004940923095</v>
       </c>
       <c r="AJ11" t="s">
         <v>45</v>
       </c>
       <c r="AK11">
-        <v>22413.501808291101</v>
+        <v>0.03</v>
       </c>
       <c r="AL11">
-        <v>1747.3579244771299</v>
+        <v>448592400</v>
       </c>
       <c r="AM11">
-        <v>8387318.0374902301</v>
-      </c>
-      <c r="AO11" s="4">
+        <v>20053.3818141191</v>
+      </c>
+      <c r="AN11">
+        <v>671.09738021966302</v>
+      </c>
+      <c r="AO11">
+        <v>3221267.4250543802</v>
+      </c>
+      <c r="AR11" s="3">
+        <f t="shared" si="0"/>
+        <v>78.249458312988196</v>
+      </c>
+      <c r="AS11" s="3">
         <f t="shared" si="1"/>
-        <v>79.786872863769503</v>
-      </c>
-      <c r="AP11" s="4">
+        <v>120.660450234107</v>
+      </c>
+      <c r="AT11" s="2">
         <f t="shared" si="2"/>
-        <v>117.823053121589</v>
-      </c>
-      <c r="AQ11" s="3">
+        <v>60.870004940923096</v>
+      </c>
+      <c r="AU11" s="2">
         <f t="shared" si="3"/>
-        <v>60.426377841317105</v>
-      </c>
-      <c r="AR11" t="str">
-        <f t="shared" si="0"/>
+        <v>3.2212674250543802</v>
+      </c>
+      <c r="AV11" t="str">
+        <f>AH11</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS11" t="str">
+      <c r="AW11" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT11" s="4">
-        <f>0.013*EXP(38.82*AV11)</f>
-        <v>58.526993694077007</v>
-      </c>
-      <c r="AU11" s="4">
+      <c r="AX11" s="3">
         <f t="shared" si="5"/>
-        <v>403.52773752000007</v>
-      </c>
-      <c r="AV11" s="2">
+        <v>422.177599956363</v>
+      </c>
+      <c r="AY11" s="3">
         <f t="shared" si="6"/>
-        <v>0.2167</v>
-      </c>
-      <c r="AW11">
+        <v>410.75314343999997</v>
+      </c>
+      <c r="AZ11" s="1">
         <f t="shared" si="7"/>
-        <v>4090</v>
+        <v>0.2676</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="8"/>
+        <v>3921</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>68411.22</v>
+        <v>47231.22</v>
       </c>
       <c r="E12">
-        <v>4239406.45</v>
+        <v>4218226.45</v>
       </c>
       <c r="F12">
-        <v>14534.1857</v>
+        <v>13057.1682</v>
       </c>
       <c r="G12">
-        <v>5202.5406000000003</v>
+        <v>5157.8389999999999</v>
       </c>
       <c r="H12">
-        <v>0.1115</v>
+        <v>9.6199999999999994E-2</v>
       </c>
       <c r="I12">
-        <v>868.7106</v>
+        <v>718.62929999999994</v>
       </c>
       <c r="J12">
-        <v>0.21310000000000001</v>
+        <v>0.21460000000000001</v>
       </c>
       <c r="K12">
-        <v>4430</v>
+        <v>3980</v>
       </c>
       <c r="L12">
-        <v>-80.753997802734304</v>
+        <v>-89.462142944335895</v>
       </c>
       <c r="M12">
         <v>167</v>
       </c>
       <c r="N12">
-        <v>101768.44145072</v>
+        <v>89398.314870963601</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
@@ -2787,31 +2905,31 @@
         <v>39</v>
       </c>
       <c r="Q12">
-        <v>0.39046722883343099</v>
+        <v>0.41809452962364002</v>
       </c>
       <c r="R12">
-        <v>0.60393256003518003</v>
+        <v>0.60005920108321298</v>
       </c>
       <c r="S12">
-        <v>0.84490192423022104</v>
+        <v>0.87630386847339903</v>
       </c>
       <c r="T12">
-        <v>155590.918661248</v>
+        <v>154899.451526922</v>
       </c>
       <c r="U12">
-        <v>187309.219432026</v>
+        <v>188907.86709420101</v>
       </c>
       <c r="V12">
-        <v>222518.21550133501</v>
+        <v>225887.43862034901</v>
       </c>
       <c r="W12">
-        <v>162010.64994352299</v>
+        <v>2464495.9755334398</v>
       </c>
       <c r="X12">
-        <v>4166528.57159753</v>
+        <v>4379739.42477585</v>
       </c>
       <c r="Y12">
-        <v>6455136.5136283198</v>
+        <v>6369640.2691937396</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2820,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>409.91765430128902</v>
+        <v>426.29494672294902</v>
       </c>
       <c r="AC12">
-        <v>82.461561330080002</v>
+        <v>85.613871055177995</v>
       </c>
       <c r="AD12">
-        <v>101.76844145072</v>
+        <v>89.398314870963603</v>
       </c>
       <c r="AE12">
-        <v>-80.753997802734304</v>
+        <v>-89.462142944335895</v>
       </c>
       <c r="AF12">
         <v>100</v>
@@ -2841,132 +2959,142 @@
         <v>44</v>
       </c>
       <c r="AI12">
-        <v>0.60393256003518003</v>
+        <v>0.60005920108321298</v>
       </c>
       <c r="AJ12" t="s">
         <v>45</v>
       </c>
       <c r="AK12">
-        <v>21362.544464196399</v>
+        <v>0.03</v>
       </c>
       <c r="AL12">
-        <v>1833.3214035265901</v>
+        <v>448592400</v>
       </c>
       <c r="AM12">
-        <v>8799942.7369276509</v>
-      </c>
-      <c r="AO12" s="4">
+        <v>23027.041368173199</v>
+      </c>
+      <c r="AN12">
+        <v>584.43339658044897</v>
+      </c>
+      <c r="AO12">
+        <v>2805280.3035861501</v>
+      </c>
+      <c r="AR12" s="3">
+        <f t="shared" si="0"/>
+        <v>89.462142944335895</v>
+      </c>
+      <c r="AS12" s="3">
         <f t="shared" si="1"/>
-        <v>80.753997802734304</v>
-      </c>
-      <c r="AP12" s="4">
+        <v>89.398314870963603</v>
+      </c>
+      <c r="AT12" s="2">
         <f t="shared" si="2"/>
-        <v>101.76844145072</v>
-      </c>
-      <c r="AQ12" s="3">
+        <v>60.005920108321298</v>
+      </c>
+      <c r="AU12" s="2">
         <f t="shared" si="3"/>
-        <v>60.393256003518005</v>
-      </c>
-      <c r="AR12" t="str">
-        <f t="shared" si="0"/>
+        <v>2.8052803035861502</v>
+      </c>
+      <c r="AV12" t="str">
+        <f>AH12</f>
         <v>Maryland</v>
       </c>
-      <c r="AS12" t="str">
+      <c r="AW12" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT12" s="4">
-        <f>0.013*EXP(38.82*AV12)</f>
-        <v>50.893543995041711</v>
-      </c>
-      <c r="AU12" s="4">
+      <c r="AX12" s="3">
         <f t="shared" si="5"/>
-        <v>264.78299088</v>
-      </c>
-      <c r="AV12" s="2">
+        <v>53.945057692918937</v>
+      </c>
+      <c r="AY12" s="3">
         <f t="shared" si="6"/>
+        <v>219.03821063999999</v>
+      </c>
+      <c r="AZ12" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="8"/>
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>68411.22</v>
+      </c>
+      <c r="E13">
+        <v>4239406.45</v>
+      </c>
+      <c r="F13">
+        <v>14534.1857</v>
+      </c>
+      <c r="G13">
+        <v>5202.5406000000003</v>
+      </c>
+      <c r="H13">
+        <v>0.1115</v>
+      </c>
+      <c r="I13">
+        <v>868.7106</v>
+      </c>
+      <c r="J13">
         <v>0.21310000000000001</v>
       </c>
-      <c r="AW12">
-        <f t="shared" si="7"/>
+      <c r="K13">
         <v>4430</v>
       </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>84</v>
-      </c>
-      <c r="C13">
-        <v>85</v>
-      </c>
-      <c r="D13">
-        <v>153131.22</v>
-      </c>
-      <c r="E13">
-        <v>4324126.45</v>
-      </c>
-      <c r="F13">
-        <v>13464.1908</v>
-      </c>
-      <c r="G13">
-        <v>7110.4336000000003</v>
-      </c>
-      <c r="H13">
-        <v>0.14779999999999999</v>
-      </c>
-      <c r="I13">
-        <v>904.00329999999997</v>
-      </c>
-      <c r="J13">
-        <v>0.2329</v>
-      </c>
-      <c r="K13">
-        <v>4104</v>
-      </c>
       <c r="L13">
-        <v>-83.02294921875</v>
+        <v>-80.753997802734304</v>
       </c>
       <c r="M13">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="N13">
-        <v>123400.116135241</v>
+        <v>101768.44145072</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
         <v>39</v>
       </c>
       <c r="Q13">
-        <v>0.41236970224362102</v>
+        <v>0.39046722883343099</v>
       </c>
       <c r="R13">
-        <v>0.61853055881437802</v>
+        <v>0.60393256003518003</v>
       </c>
       <c r="S13">
-        <v>0.908571819276766</v>
+        <v>0.84490192423022104</v>
       </c>
       <c r="T13">
-        <v>161989.47113614099</v>
+        <v>155590.918661248</v>
       </c>
       <c r="U13">
-        <v>190691.62050396201</v>
+        <v>187309.219432026</v>
       </c>
       <c r="V13">
-        <v>225153.91060146</v>
+        <v>222518.21550133501</v>
       </c>
       <c r="W13">
-        <v>2710982.8101486601</v>
+        <v>162010.64994352299</v>
       </c>
       <c r="X13">
-        <v>4407058.7432078496</v>
+        <v>4166528.57159753</v>
       </c>
       <c r="Y13">
-        <v>6138321.0851236796</v>
+        <v>6455136.5136283198</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -2975,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>421.58298192108401</v>
+        <v>409.91765430128902</v>
       </c>
       <c r="AC13">
-        <v>82.3105573408167</v>
+        <v>82.461561330080002</v>
       </c>
       <c r="AD13">
-        <v>123.40011613524101</v>
+        <v>101.76844145072</v>
       </c>
       <c r="AE13">
-        <v>-83.02294921875</v>
+        <v>-80.753997802734304</v>
       </c>
       <c r="AF13">
         <v>100</v>
@@ -2993,135 +3121,145 @@
         <v>40</v>
       </c>
       <c r="AH13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AI13">
-        <v>0.61853055881437802</v>
+        <v>0.60393256003518003</v>
       </c>
       <c r="AJ13" t="s">
         <v>45</v>
       </c>
       <c r="AK13">
-        <v>21284.3777206593</v>
+        <v>0.03</v>
       </c>
       <c r="AL13">
-        <v>1840.0542648698499</v>
+        <v>448592400</v>
       </c>
       <c r="AM13">
-        <v>8832260.4713752791</v>
-      </c>
-      <c r="AO13" s="4">
+        <v>21362.544464196399</v>
+      </c>
+      <c r="AN13">
+        <v>629.97046173760498</v>
+      </c>
+      <c r="AO13">
+        <v>3023858.2163404999</v>
+      </c>
+      <c r="AR13" s="3">
+        <f t="shared" si="0"/>
+        <v>80.753997802734304</v>
+      </c>
+      <c r="AS13" s="3">
         <f t="shared" si="1"/>
-        <v>83.02294921875</v>
-      </c>
-      <c r="AP13" s="4">
+        <v>101.76844145072</v>
+      </c>
+      <c r="AT13" s="2">
         <f t="shared" si="2"/>
-        <v>123.40011613524101</v>
-      </c>
-      <c r="AQ13" s="3">
+        <v>60.393256003518005</v>
+      </c>
+      <c r="AU13" s="2">
         <f t="shared" si="3"/>
-        <v>61.853055881437804</v>
-      </c>
-      <c r="AR13" t="str">
-        <f t="shared" si="0"/>
-        <v>New Jersey</v>
-      </c>
-      <c r="AS13" t="str">
+        <v>3.0238582163404999</v>
+      </c>
+      <c r="AV13" t="str">
+        <f>AH13</f>
+        <v>Maryland</v>
+      </c>
+      <c r="AW13" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT13" s="4">
-        <f>0.013*EXP(38.82*AV13)</f>
-        <v>109.76833269200239</v>
-      </c>
-      <c r="AU13" s="4">
+      <c r="AX13" s="3">
         <f t="shared" si="5"/>
-        <v>275.54020584</v>
-      </c>
-      <c r="AV13" s="2">
+        <v>50.893543995041711</v>
+      </c>
+      <c r="AY13" s="3">
         <f t="shared" si="6"/>
+        <v>264.78299088</v>
+      </c>
+      <c r="AZ13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="8"/>
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>85</v>
+      </c>
+      <c r="D14">
+        <v>153131.22</v>
+      </c>
+      <c r="E14">
+        <v>4324126.45</v>
+      </c>
+      <c r="F14">
+        <v>13464.1908</v>
+      </c>
+      <c r="G14">
+        <v>7110.4336000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="I14">
+        <v>904.00329999999997</v>
+      </c>
+      <c r="J14">
         <v>0.2329</v>
       </c>
-      <c r="AW13">
-        <f t="shared" si="7"/>
+      <c r="K14">
         <v>4104</v>
       </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>120</v>
-      </c>
-      <c r="C14">
-        <v>121</v>
-      </c>
-      <c r="D14">
-        <v>195491.22</v>
-      </c>
-      <c r="E14">
-        <v>4387666.45</v>
-      </c>
-      <c r="F14">
-        <v>13244.313</v>
-      </c>
-      <c r="G14">
-        <v>4445.6668</v>
-      </c>
-      <c r="H14">
-        <v>0.16739999999999999</v>
-      </c>
-      <c r="I14">
-        <v>1874.4704999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.2379</v>
-      </c>
-      <c r="K14">
-        <v>4037</v>
-      </c>
       <c r="L14">
-        <v>-84.651504516601506</v>
+        <v>-83.02294921875</v>
       </c>
       <c r="M14">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="N14">
-        <v>127861.810368144</v>
+        <v>123400.116135241</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
         <v>39</v>
       </c>
       <c r="Q14">
-        <v>0.404317186287112</v>
+        <v>0.41236970224362102</v>
       </c>
       <c r="R14">
-        <v>0.62044776600024798</v>
+        <v>0.61853055881437802</v>
       </c>
       <c r="S14">
-        <v>0.88888738262531397</v>
+        <v>0.908571819276766</v>
       </c>
       <c r="T14">
-        <v>160791.263627404</v>
+        <v>161989.47113614099</v>
       </c>
       <c r="U14">
-        <v>190653.829728721</v>
+        <v>190691.62050396201</v>
       </c>
       <c r="V14">
-        <v>225033.06093228</v>
+        <v>225153.91060146</v>
       </c>
       <c r="W14">
-        <v>2305712.22888572</v>
+        <v>2710982.8101486601</v>
       </c>
       <c r="X14">
-        <v>4379664.7214557696</v>
+        <v>4407058.7432078496</v>
       </c>
       <c r="Y14">
-        <v>6719858.0976397302</v>
+        <v>6138321.0851236796</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -3130,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>424.08604292113802</v>
+        <v>421.58298192108401</v>
       </c>
       <c r="AC14">
-        <v>82.2225923649316</v>
+        <v>82.3105573408167</v>
       </c>
       <c r="AD14">
-        <v>127.86181036814401</v>
+        <v>123.40011613524101</v>
       </c>
       <c r="AE14">
-        <v>-84.651504516601506</v>
+        <v>-83.02294921875</v>
       </c>
       <c r="AF14">
         <v>100</v>
@@ -3148,135 +3286,145 @@
         <v>40</v>
       </c>
       <c r="AH14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AI14">
-        <v>0.62044776600024798</v>
+        <v>0.61853055881437802</v>
       </c>
       <c r="AJ14" t="s">
         <v>45</v>
       </c>
       <c r="AK14">
-        <v>21238.908964662802</v>
+        <v>0.03</v>
       </c>
       <c r="AL14">
-        <v>1843.9934963307901</v>
+        <v>448592400</v>
       </c>
       <c r="AM14">
-        <v>8851168.7823877893</v>
-      </c>
-      <c r="AO14" s="4">
+        <v>21284.3777206593</v>
+      </c>
+      <c r="AN14">
+        <v>632.28402430283097</v>
+      </c>
+      <c r="AO14">
+        <v>3034963.3166535902</v>
+      </c>
+      <c r="AR14" s="3">
+        <f t="shared" si="0"/>
+        <v>83.02294921875</v>
+      </c>
+      <c r="AS14" s="3">
         <f t="shared" si="1"/>
-        <v>84.651504516601506</v>
-      </c>
-      <c r="AP14" s="4">
+        <v>123.40011613524101</v>
+      </c>
+      <c r="AT14" s="2">
         <f t="shared" si="2"/>
-        <v>127.86181036814401</v>
-      </c>
-      <c r="AQ14" s="3">
+        <v>61.853055881437804</v>
+      </c>
+      <c r="AU14" s="2">
         <f t="shared" si="3"/>
-        <v>62.044776600024797</v>
-      </c>
-      <c r="AR14" t="str">
-        <f t="shared" si="0"/>
-        <v>New York</v>
-      </c>
-      <c r="AS14" t="str">
+        <v>3.0349633166535903</v>
+      </c>
+      <c r="AV14" t="str">
+        <f>AH14</f>
+        <v>New Jersey</v>
+      </c>
+      <c r="AW14" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT14" s="4">
-        <f>0.013*EXP(38.82*AV14)</f>
-        <v>133.28265230650271</v>
-      </c>
-      <c r="AU14" s="4">
+      <c r="AX14" s="3">
         <f t="shared" si="5"/>
-        <v>571.3386084</v>
-      </c>
-      <c r="AV14" s="2">
+        <v>109.76833269200239</v>
+      </c>
+      <c r="AY14" s="3">
         <f t="shared" si="6"/>
+        <v>275.54020584</v>
+      </c>
+      <c r="AZ14" s="1">
+        <f t="shared" si="7"/>
+        <v>0.2329</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="8"/>
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>195491.22</v>
+      </c>
+      <c r="E15">
+        <v>4387666.45</v>
+      </c>
+      <c r="F15">
+        <v>13244.313</v>
+      </c>
+      <c r="G15">
+        <v>4445.6668</v>
+      </c>
+      <c r="H15">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="I15">
+        <v>1874.4704999999999</v>
+      </c>
+      <c r="J15">
         <v>0.2379</v>
       </c>
-      <c r="AW14">
-        <f t="shared" si="7"/>
+      <c r="K15">
         <v>4037</v>
       </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>47231.22</v>
-      </c>
-      <c r="E15">
-        <v>4218226.45</v>
-      </c>
-      <c r="F15">
-        <v>13057.1682</v>
-      </c>
-      <c r="G15">
-        <v>5157.8389999999999</v>
-      </c>
-      <c r="H15">
-        <v>9.6199999999999994E-2</v>
-      </c>
-      <c r="I15">
-        <v>718.62929999999994</v>
-      </c>
-      <c r="J15">
-        <v>0.21460000000000001</v>
-      </c>
-      <c r="K15">
-        <v>3980</v>
-      </c>
       <c r="L15">
-        <v>-89.462142944335895</v>
+        <v>-84.651504516601506</v>
       </c>
       <c r="M15">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="N15">
-        <v>89398.314870963601</v>
+        <v>127861.810368144</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P15" t="s">
         <v>39</v>
       </c>
       <c r="Q15">
-        <v>0.41809452962364002</v>
+        <v>0.404317186287112</v>
       </c>
       <c r="R15">
-        <v>0.60005920108321298</v>
+        <v>0.62044776600024798</v>
       </c>
       <c r="S15">
-        <v>0.87630386847339903</v>
+        <v>0.88888738262531397</v>
       </c>
       <c r="T15">
-        <v>154899.451526922</v>
+        <v>160791.263627404</v>
       </c>
       <c r="U15">
-        <v>188907.86709420101</v>
+        <v>190653.829728721</v>
       </c>
       <c r="V15">
-        <v>225887.43862034901</v>
+        <v>225033.06093228</v>
       </c>
       <c r="W15">
-        <v>2464495.9755334398</v>
+        <v>2305712.22888572</v>
       </c>
       <c r="X15">
-        <v>4379739.42477585</v>
+        <v>4379664.7214557696</v>
       </c>
       <c r="Y15">
-        <v>6369640.2691937396</v>
+        <v>6719858.0976397302</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -3285,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>426.29494672294902</v>
+        <v>424.08604292113802</v>
       </c>
       <c r="AC15">
-        <v>85.613871055177995</v>
+        <v>82.2225923649316</v>
       </c>
       <c r="AD15">
-        <v>89.398314870963603</v>
+        <v>127.86181036814401</v>
       </c>
       <c r="AE15">
-        <v>-89.462142944335895</v>
+        <v>-84.651504516601506</v>
       </c>
       <c r="AF15">
         <v>100</v>
@@ -3303,61 +3451,71 @@
         <v>40</v>
       </c>
       <c r="AH15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AI15">
-        <v>0.60005920108321298</v>
+        <v>0.62044776600024798</v>
       </c>
       <c r="AJ15" t="s">
         <v>45</v>
       </c>
       <c r="AK15">
-        <v>23027.041368173199</v>
+        <v>0.03</v>
       </c>
       <c r="AL15">
-        <v>1700.80078347064</v>
+        <v>448592400</v>
       </c>
       <c r="AM15">
-        <v>8163843.7606590996</v>
-      </c>
-      <c r="AO15" s="4">
+        <v>21238.908964662802</v>
+      </c>
+      <c r="AN15">
+        <v>633.63763281771901</v>
+      </c>
+      <c r="AO15">
+        <v>3041460.63752505</v>
+      </c>
+      <c r="AR15" s="3">
+        <f t="shared" si="0"/>
+        <v>84.651504516601506</v>
+      </c>
+      <c r="AS15" s="3">
         <f t="shared" si="1"/>
-        <v>89.462142944335895</v>
-      </c>
-      <c r="AP15" s="4">
+        <v>127.86181036814401</v>
+      </c>
+      <c r="AT15" s="2">
         <f t="shared" si="2"/>
-        <v>89.398314870963603</v>
-      </c>
-      <c r="AQ15" s="3">
+        <v>62.044776600024797</v>
+      </c>
+      <c r="AU15" s="2">
         <f t="shared" si="3"/>
-        <v>60.005920108321298</v>
-      </c>
-      <c r="AR15" t="str">
-        <f t="shared" si="0"/>
-        <v>Maryland</v>
-      </c>
-      <c r="AS15" t="str">
+        <v>3.0414606375250499</v>
+      </c>
+      <c r="AV15" t="str">
+        <f>AH15</f>
+        <v>New York</v>
+      </c>
+      <c r="AW15" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT15" s="4">
-        <f>0.013*EXP(38.82*AV15)</f>
-        <v>53.945057692918937</v>
-      </c>
-      <c r="AU15" s="4">
+      <c r="AX15" s="3">
         <f t="shared" si="5"/>
-        <v>219.03821063999999</v>
-      </c>
-      <c r="AV15" s="2">
+        <v>133.28265230650271</v>
+      </c>
+      <c r="AY15" s="3">
         <f t="shared" si="6"/>
-        <v>0.21460000000000001</v>
-      </c>
-      <c r="AW15">
+        <v>571.3386084</v>
+      </c>
+      <c r="AZ15" s="1">
         <f t="shared" si="7"/>
-        <v>3980</v>
+        <v>0.2379</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="8"/>
+        <v>4037</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3467,93 +3625,103 @@
         <v>45</v>
       </c>
       <c r="AK16">
+        <v>0.03</v>
+      </c>
+      <c r="AL16">
+        <v>448592400</v>
+      </c>
+      <c r="AM16">
         <v>21770.3068720263</v>
       </c>
-      <c r="AL16">
-        <v>1798.98290962192</v>
-      </c>
-      <c r="AM16">
-        <v>8635117.9661852103</v>
-      </c>
-      <c r="AO16" s="4">
+      <c r="AN16">
+        <v>618.17098303251305</v>
+      </c>
+      <c r="AO16">
+        <v>2967220.71855606</v>
+      </c>
+      <c r="AR16" s="3">
+        <f t="shared" si="0"/>
+        <v>96.552452087402301</v>
+      </c>
+      <c r="AS16" s="3">
         <f t="shared" si="1"/>
-        <v>96.552452087402301</v>
-      </c>
-      <c r="AP16" s="4">
+        <v>115.87128577722901</v>
+      </c>
+      <c r="AT16" s="2">
         <f t="shared" si="2"/>
-        <v>115.87128577722901</v>
-      </c>
-      <c r="AQ16" s="3">
+        <v>61.300800218147401</v>
+      </c>
+      <c r="AU16" s="2">
         <f t="shared" si="3"/>
-        <v>61.300800218147401</v>
-      </c>
-      <c r="AR16" t="str">
-        <f t="shared" si="0"/>
+        <v>2.9672207185560602</v>
+      </c>
+      <c r="AV16" t="str">
+        <f>AH16</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS16" t="str">
+      <c r="AW16" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT16" s="4">
-        <f>0.013*EXP(38.82*AV16)</f>
+      <c r="AX16" s="3">
+        <f t="shared" si="5"/>
         <v>46.007483980291887</v>
       </c>
-      <c r="AU16" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY16" s="3">
+        <f t="shared" si="6"/>
         <v>303.78782016000002</v>
       </c>
-      <c r="AV16" s="2">
-        <f t="shared" si="6"/>
+      <c r="AZ16" s="1">
+        <f t="shared" si="7"/>
         <v>0.21049999999999999</v>
       </c>
-      <c r="AW16">
-        <f t="shared" si="7"/>
+      <c r="BA16">
+        <f t="shared" si="8"/>
         <v>4368</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>174311.22</v>
+        <v>110771.22</v>
       </c>
       <c r="E17">
-        <v>4345306.45</v>
+        <v>4260586.45</v>
       </c>
       <c r="F17">
-        <v>13717.458000000001</v>
+        <v>14205.1338</v>
       </c>
       <c r="G17">
-        <v>6235.74</v>
+        <v>5561.2988999999998</v>
       </c>
       <c r="H17">
-        <v>0.1497</v>
+        <v>0.13769999999999999</v>
       </c>
       <c r="I17">
-        <v>1259.2126000000001</v>
+        <v>659.97730000000001</v>
       </c>
       <c r="J17">
-        <v>0.2485</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="K17">
-        <v>4181</v>
+        <v>4330</v>
       </c>
       <c r="L17">
-        <v>-105.24309539794901</v>
+        <v>-109.16609954833901</v>
       </c>
       <c r="M17">
-        <v>302</v>
+        <v>949</v>
       </c>
       <c r="N17">
-        <v>130178.150294796</v>
+        <v>133167.23795634101</v>
       </c>
       <c r="O17" t="s">
         <v>38</v>
@@ -3562,52 +3730,52 @@
         <v>39</v>
       </c>
       <c r="Q17">
-        <v>0.39744855618416602</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.60117521637392701</v>
+        <v>0.61713081389837199</v>
       </c>
       <c r="S17">
-        <v>0.820395029286346</v>
+        <v>0.86769116220164699</v>
       </c>
       <c r="T17">
-        <v>156716.603182658</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>188267.16385302201</v>
+        <v>189903.19880659899</v>
       </c>
       <c r="V17">
-        <v>223559.03610798001</v>
+        <v>228431.449035875</v>
       </c>
       <c r="W17">
-        <v>2995250.3622561698</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>4433186.3234147402</v>
+        <v>4518160.6848190604</v>
       </c>
       <c r="Y17">
-        <v>5824028.9219378196</v>
+        <v>6350511.2910603601</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB17">
-        <v>418.72387678327101</v>
+        <v>413.44850890354098</v>
       </c>
       <c r="AC17">
-        <v>79.973261674408207</v>
+        <v>84.100603784825395</v>
       </c>
       <c r="AD17">
-        <v>130.17815029479601</v>
+        <v>133.16723795634101</v>
       </c>
       <c r="AE17">
-        <v>-105.24309539794901</v>
+        <v>-109.16609954833901</v>
       </c>
       <c r="AF17">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG17" t="s">
         <v>40</v>
@@ -3616,99 +3784,109 @@
         <v>41</v>
       </c>
       <c r="AI17">
-        <v>0.60117521637392701</v>
+        <v>0.61713081389837199</v>
       </c>
       <c r="AJ17" t="s">
         <v>45</v>
       </c>
       <c r="AK17">
-        <v>20092.755080659099</v>
+        <v>0.03</v>
       </c>
       <c r="AL17">
-        <v>1949.1806794429499</v>
+        <v>448592400</v>
       </c>
       <c r="AM17">
-        <v>9356067.2613261808</v>
-      </c>
-      <c r="AO17" s="4">
+        <v>22220.206986874098</v>
+      </c>
+      <c r="AN17">
+        <v>605.654664150955</v>
+      </c>
+      <c r="AO17">
+        <v>2907142.3879245799</v>
+      </c>
+      <c r="AR17" s="3">
+        <f t="shared" si="0"/>
+        <v>109.16609954833901</v>
+      </c>
+      <c r="AS17" s="3">
         <f t="shared" si="1"/>
-        <v>105.24309539794901</v>
-      </c>
-      <c r="AP17" s="4">
+        <v>133.16723795634101</v>
+      </c>
+      <c r="AT17" s="2">
         <f t="shared" si="2"/>
-        <v>130.17815029479601</v>
-      </c>
-      <c r="AQ17" s="3">
+        <v>61.7130813898372</v>
+      </c>
+      <c r="AU17" s="2">
         <f t="shared" si="3"/>
-        <v>60.117521637392699</v>
-      </c>
-      <c r="AR17" t="str">
-        <f t="shared" si="0"/>
+        <v>2.9071423879245799</v>
+      </c>
+      <c r="AV17" t="str">
+        <f>AH17</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS17" t="str">
+      <c r="AW17" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT17" s="4">
-        <f>0.013*EXP(38.82*AV17)</f>
-        <v>201.13253693189867</v>
-      </c>
-      <c r="AU17" s="4">
+      <c r="AX17" s="3">
         <f t="shared" si="5"/>
-        <v>383.80800048000003</v>
-      </c>
-      <c r="AV17" s="2">
+        <v>39.085833176286037</v>
+      </c>
+      <c r="AY17" s="3">
         <f t="shared" si="6"/>
+        <v>201.16108104000003</v>
+      </c>
+      <c r="AZ17" s="1">
+        <f t="shared" si="7"/>
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="8"/>
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>97</v>
+      </c>
+      <c r="D18">
+        <v>174311.22</v>
+      </c>
+      <c r="E18">
+        <v>4345306.45</v>
+      </c>
+      <c r="F18">
+        <v>13717.458000000001</v>
+      </c>
+      <c r="G18">
+        <v>6235.74</v>
+      </c>
+      <c r="H18">
+        <v>0.1497</v>
+      </c>
+      <c r="I18">
+        <v>1259.2126000000001</v>
+      </c>
+      <c r="J18">
         <v>0.2485</v>
       </c>
-      <c r="AW17">
-        <f t="shared" si="7"/>
+      <c r="K18">
         <v>4181</v>
       </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>51</v>
-      </c>
-      <c r="D18">
-        <v>110771.22</v>
-      </c>
-      <c r="E18">
-        <v>4260586.45</v>
-      </c>
-      <c r="F18">
-        <v>14205.1338</v>
-      </c>
-      <c r="G18">
-        <v>5561.2988999999998</v>
-      </c>
-      <c r="H18">
-        <v>0.13769999999999999</v>
-      </c>
-      <c r="I18">
-        <v>659.97730000000001</v>
-      </c>
-      <c r="J18">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="K18">
-        <v>4330</v>
-      </c>
       <c r="L18">
-        <v>-109.16609954833901</v>
+        <v>-105.24309539794901</v>
       </c>
       <c r="M18">
-        <v>949</v>
+        <v>302</v>
       </c>
       <c r="N18">
-        <v>133167.23795634101</v>
+        <v>130178.150294796</v>
       </c>
       <c r="O18" t="s">
         <v>38</v>
@@ -3717,52 +3895,52 @@
         <v>39</v>
       </c>
       <c r="Q18">
+        <v>0.39744855618416602</v>
+      </c>
+      <c r="R18">
+        <v>0.60117521637392701</v>
+      </c>
+      <c r="S18">
+        <v>0.820395029286346</v>
+      </c>
+      <c r="T18">
+        <v>156716.603182658</v>
+      </c>
+      <c r="U18">
+        <v>188267.16385302201</v>
+      </c>
+      <c r="V18">
+        <v>223559.03610798001</v>
+      </c>
+      <c r="W18">
+        <v>2995250.3622561698</v>
+      </c>
+      <c r="X18">
+        <v>4433186.3234147402</v>
+      </c>
+      <c r="Y18">
+        <v>5824028.9219378196</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
         <v>0</v>
       </c>
-      <c r="R18">
-        <v>0.61713081389837199</v>
-      </c>
-      <c r="S18">
-        <v>0.86769116220164699</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>189903.19880659899</v>
-      </c>
-      <c r="V18">
-        <v>228431.449035875</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>4518160.6848190604</v>
-      </c>
-      <c r="Y18">
-        <v>6350511.2910603601</v>
-      </c>
-      <c r="Z18">
-        <v>0.99</v>
-      </c>
-      <c r="AA18">
-        <v>0.01</v>
-      </c>
       <c r="AB18">
-        <v>413.44850890354098</v>
+        <v>418.72387678327101</v>
       </c>
       <c r="AC18">
-        <v>84.100603784825395</v>
+        <v>79.973261674408207</v>
       </c>
       <c r="AD18">
-        <v>133.16723795634101</v>
+        <v>130.17815029479601</v>
       </c>
       <c r="AE18">
-        <v>-109.16609954833901</v>
+        <v>-105.24309539794901</v>
       </c>
       <c r="AF18">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG18" t="s">
         <v>40</v>
@@ -3771,58 +3949,68 @@
         <v>41</v>
       </c>
       <c r="AI18">
-        <v>0.61713081389837199</v>
+        <v>0.60117521637392701</v>
       </c>
       <c r="AJ18" t="s">
         <v>45</v>
       </c>
       <c r="AK18">
-        <v>22220.206986874098</v>
+        <v>0.03</v>
       </c>
       <c r="AL18">
-        <v>1762.55828863948</v>
+        <v>448592400</v>
       </c>
       <c r="AM18">
-        <v>8460279.7854695097</v>
-      </c>
-      <c r="AO18" s="4">
+        <v>20092.755080659099</v>
+      </c>
+      <c r="AN18">
+        <v>669.78231437032605</v>
+      </c>
+      <c r="AO18">
+        <v>3214955.10897756</v>
+      </c>
+      <c r="AR18" s="3">
+        <f t="shared" si="0"/>
+        <v>105.24309539794901</v>
+      </c>
+      <c r="AS18" s="3">
         <f t="shared" si="1"/>
-        <v>109.16609954833901</v>
-      </c>
-      <c r="AP18" s="4">
+        <v>130.17815029479601</v>
+      </c>
+      <c r="AT18" s="2">
         <f t="shared" si="2"/>
-        <v>133.16723795634101</v>
-      </c>
-      <c r="AQ18" s="3">
+        <v>60.117521637392699</v>
+      </c>
+      <c r="AU18" s="2">
         <f t="shared" si="3"/>
-        <v>61.7130813898372</v>
-      </c>
-      <c r="AR18" t="str">
-        <f t="shared" si="0"/>
+        <v>3.2149551089775601</v>
+      </c>
+      <c r="AV18" t="str">
+        <f>AH18</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS18" t="str">
+      <c r="AW18" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT18" s="4">
-        <f>0.013*EXP(38.82*AV18)</f>
-        <v>39.085833176286037</v>
-      </c>
-      <c r="AU18" s="4">
+      <c r="AX18" s="3">
         <f t="shared" si="5"/>
-        <v>201.16108104000003</v>
-      </c>
-      <c r="AV18" s="2">
+        <v>201.13253693189867</v>
+      </c>
+      <c r="AY18" s="3">
         <f t="shared" si="6"/>
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="AW18">
+        <v>383.80800048000003</v>
+      </c>
+      <c r="AZ18" s="1">
         <f t="shared" si="7"/>
-        <v>4330</v>
+        <v>0.2485</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="8"/>
+        <v>4181</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3932,52 +4120,62 @@
         <v>45</v>
       </c>
       <c r="AK19">
+        <v>0.03</v>
+      </c>
+      <c r="AL19">
+        <v>448592400</v>
+      </c>
+      <c r="AM19">
         <v>22575.528602210299</v>
       </c>
-      <c r="AL19">
-        <v>1734.8169644260399</v>
-      </c>
-      <c r="AM19">
-        <v>8327121.4292450296</v>
-      </c>
-      <c r="AO19" s="4">
+      <c r="AN19">
+        <v>596.12212130804096</v>
+      </c>
+      <c r="AO19">
+        <v>2861386.1822785898</v>
+      </c>
+      <c r="AR19" s="3">
+        <f t="shared" si="0"/>
+        <v>116.336959838867</v>
+      </c>
+      <c r="AS19" s="3">
         <f t="shared" si="1"/>
-        <v>116.336959838867</v>
-      </c>
-      <c r="AP19" s="4">
+        <v>135.28160981958999</v>
+      </c>
+      <c r="AT19" s="2">
         <f t="shared" si="2"/>
-        <v>135.28160981958999</v>
-      </c>
-      <c r="AQ19" s="3">
+        <v>60.8357609577007</v>
+      </c>
+      <c r="AU19" s="2">
         <f t="shared" si="3"/>
-        <v>60.8357609577007</v>
-      </c>
-      <c r="AR19" t="str">
-        <f t="shared" si="0"/>
+        <v>2.86138618227859</v>
+      </c>
+      <c r="AV19" t="str">
+        <f>AH19</f>
         <v>New York</v>
       </c>
-      <c r="AS19" t="str">
+      <c r="AW19" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT19" s="4">
-        <f>0.013*EXP(38.82*AV19)</f>
+      <c r="AX19" s="3">
+        <f t="shared" si="5"/>
         <v>59.906204365441823</v>
       </c>
-      <c r="AU19" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY19" s="3">
+        <f t="shared" si="6"/>
         <v>270.79242768</v>
       </c>
-      <c r="AV19" s="2">
-        <f t="shared" si="6"/>
+      <c r="AZ19" s="1">
+        <f t="shared" si="7"/>
         <v>0.21729999999999999</v>
       </c>
-      <c r="AW19">
-        <f t="shared" si="7"/>
+      <c r="BA19">
+        <f t="shared" si="8"/>
         <v>4040</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4087,52 +4285,62 @@
         <v>45</v>
       </c>
       <c r="AK20">
+        <v>0.03</v>
+      </c>
+      <c r="AL20">
+        <v>448592400</v>
+      </c>
+      <c r="AM20">
         <v>19858.236209788702</v>
       </c>
-      <c r="AL20">
-        <v>1972.19982612023</v>
-      </c>
-      <c r="AM20">
-        <v>9466559.1653771494</v>
-      </c>
-      <c r="AO20" s="4">
+      <c r="AN20">
+        <v>677.69221082012496</v>
+      </c>
+      <c r="AO20">
+        <v>3252922.6119365999</v>
+      </c>
+      <c r="AR20" s="3">
+        <f t="shared" si="0"/>
+        <v>125.110481262207</v>
+      </c>
+      <c r="AS20" s="3">
         <f t="shared" si="1"/>
-        <v>125.110481262207</v>
-      </c>
-      <c r="AP20" s="4">
+        <v>140.44178273402301</v>
+      </c>
+      <c r="AT20" s="2">
         <f t="shared" si="2"/>
-        <v>140.44178273402301</v>
-      </c>
-      <c r="AQ20" s="3">
+        <v>61.217910876512008</v>
+      </c>
+      <c r="AU20" s="2">
         <f t="shared" si="3"/>
-        <v>61.217910876512008</v>
-      </c>
-      <c r="AR20" t="str">
-        <f t="shared" si="0"/>
+        <v>3.2529226119365999</v>
+      </c>
+      <c r="AV20" t="str">
+        <f>AH20</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS20" t="str">
+      <c r="AW20" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT20" s="4">
-        <f>0.013*EXP(38.82*AV20)</f>
+      <c r="AX20" s="3">
+        <f t="shared" si="5"/>
         <v>319.23326649224481</v>
       </c>
-      <c r="AU20" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY20" s="3">
+        <f t="shared" si="6"/>
         <v>80.615302320000012</v>
       </c>
-      <c r="AV20" s="2">
-        <f t="shared" si="6"/>
+      <c r="AZ20" s="1">
+        <f t="shared" si="7"/>
         <v>0.26040000000000002</v>
       </c>
-      <c r="AW20">
-        <f t="shared" si="7"/>
+      <c r="BA20">
+        <f t="shared" si="8"/>
         <v>4072</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4242,52 +4450,62 @@
         <v>45</v>
       </c>
       <c r="AK21">
+        <v>0.03</v>
+      </c>
+      <c r="AL21">
+        <v>448592400</v>
+      </c>
+      <c r="AM21">
         <v>23796.2985619231</v>
       </c>
-      <c r="AL21">
-        <v>1645.8194075051399</v>
-      </c>
-      <c r="AM21">
-        <v>7899933.1560247</v>
-      </c>
-      <c r="AO21" s="4">
+      <c r="AN21">
+        <v>565.54055938489398</v>
+      </c>
+      <c r="AO21">
+        <v>2714594.6850474901</v>
+      </c>
+      <c r="AR21" s="3">
+        <f t="shared" si="0"/>
+        <v>157.49330139160099</v>
+      </c>
+      <c r="AS21" s="3">
         <f t="shared" si="1"/>
-        <v>157.49330139160099</v>
-      </c>
-      <c r="AP21" s="4">
+        <v>132.66832820242499</v>
+      </c>
+      <c r="AT21" s="2">
         <f t="shared" si="2"/>
-        <v>132.66832820242499</v>
-      </c>
-      <c r="AQ21" s="3">
+        <v>62.070186392010598</v>
+      </c>
+      <c r="AU21" s="2">
         <f t="shared" si="3"/>
-        <v>62.070186392010598</v>
-      </c>
-      <c r="AR21" t="str">
-        <f t="shared" si="0"/>
+        <v>2.7145946850474902</v>
+      </c>
+      <c r="AV21" t="str">
+        <f>AH21</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS21" t="str">
+      <c r="AW21" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT21" s="4">
-        <f>0.013*EXP(38.82*AV21)</f>
+      <c r="AX21" s="3">
+        <f t="shared" si="5"/>
         <v>34.519903767493375</v>
       </c>
-      <c r="AU21" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY21" s="3">
+        <f t="shared" si="6"/>
         <v>176.48374152000002</v>
       </c>
-      <c r="AV21" s="2">
-        <f t="shared" si="6"/>
+      <c r="AZ21" s="1">
+        <f t="shared" si="7"/>
         <v>0.2031</v>
       </c>
-      <c r="AW21">
-        <f t="shared" si="7"/>
+      <c r="BA21">
+        <f t="shared" si="8"/>
         <v>4008</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4397,49 +4615,65 @@
         <v>45</v>
       </c>
       <c r="AK22">
+        <v>0.03</v>
+      </c>
+      <c r="AL22">
+        <v>448592400</v>
+      </c>
+      <c r="AM22">
         <v>21182.848251255102</v>
       </c>
-      <c r="AL22">
-        <v>1848.87365171392</v>
-      </c>
-      <c r="AM22">
-        <v>8874593.5282268394</v>
-      </c>
-      <c r="AO22" s="4">
+      <c r="AN22">
+        <v>635.314563951644</v>
+      </c>
+      <c r="AO22">
+        <v>3049509.90696789</v>
+      </c>
+      <c r="AR22" s="3">
+        <f t="shared" si="0"/>
+        <v>194.27447509765599</v>
+      </c>
+      <c r="AS22" s="3">
         <f t="shared" si="1"/>
-        <v>194.27447509765599</v>
-      </c>
-      <c r="AP22" s="4">
+        <v>148.80283248580699</v>
+      </c>
+      <c r="AT22" s="2">
         <f t="shared" si="2"/>
-        <v>148.80283248580699</v>
-      </c>
-      <c r="AQ22" s="3">
+        <v>60.633974935520897</v>
+      </c>
+      <c r="AU22" s="2">
         <f t="shared" si="3"/>
-        <v>60.633974935520897</v>
-      </c>
-      <c r="AR22" t="str">
-        <f t="shared" si="0"/>
+        <v>3.0495099069678901</v>
+      </c>
+      <c r="AV22" t="str">
+        <f>AH22</f>
         <v>New Jersey</v>
       </c>
-      <c r="AS22" t="str">
+      <c r="AW22" t="str">
         <f t="shared" si="4"/>
         <v>Upper Jurassic</v>
       </c>
-      <c r="AT22" s="4">
-        <f>0.013*EXP(38.82*AV22)</f>
+      <c r="AX22" s="3">
+        <f t="shared" si="5"/>
         <v>142.92901072177227</v>
       </c>
-      <c r="AU22" s="4">
-        <f t="shared" si="5"/>
+      <c r="AY22" s="3">
+        <f t="shared" si="6"/>
         <v>119.68429200000001</v>
       </c>
-      <c r="AV22" s="2">
-        <f t="shared" si="6"/>
+      <c r="AZ22" s="1">
+        <f t="shared" si="7"/>
         <v>0.2397</v>
       </c>
-      <c r="AW22">
-        <f t="shared" si="7"/>
+      <c r="BA22">
+        <f t="shared" si="8"/>
         <v>4024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU25" s="2">
+        <f>SUM(AU2:AU4)</f>
+        <v>8.1064302183677999</v>
       </c>
     </row>
   </sheetData>
